--- a/papers/suplementbook/content/cohorte/data/fertility.xlsx
+++ b/papers/suplementbook/content/cohorte/data/fertility.xlsx
@@ -22,7 +22,7 @@
     <x:t>Enhed: Fertilitetskvotient</x:t>
   </x:si>
   <x:si>
-    <x:t>2069</x:t>
+    <x:t>2025</x:t>
   </x:si>
   <x:si>
     <x:t>Dansk oprindelse - med dansk statsborgerskab</x:t>
@@ -641,7 +641,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C12" s="4" t="n">
-        <x:v>20.5</x:v>
+        <x:v>20.6</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -657,7 +657,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C14" s="4" t="n">
-        <x:v>46</x:v>
+        <x:v>45.9</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
@@ -673,7 +673,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C16" s="4" t="n">
-        <x:v>91.4</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
@@ -681,7 +681,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C17" s="4" t="n">
-        <x:v>117.8</x:v>
+        <x:v>116.2</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
@@ -689,7 +689,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C18" s="4" t="n">
-        <x:v>147.1</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
@@ -697,7 +697,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C19" s="4" t="n">
-        <x:v>155.9</x:v>
+        <x:v>147.8</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
@@ -705,7 +705,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C20" s="4" t="n">
-        <x:v>163.9</x:v>
+        <x:v>152.7</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
@@ -713,7 +713,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C21" s="4" t="n">
-        <x:v>150.3</x:v>
+        <x:v>136.6</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
@@ -721,7 +721,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C22" s="4" t="n">
-        <x:v>143.3</x:v>
+        <x:v>124.4</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
@@ -729,7 +729,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C23" s="4" t="n">
-        <x:v>125.4</x:v>
+        <x:v>108.8</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
@@ -737,7 +737,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C24" s="4" t="n">
-        <x:v>107.2</x:v>
+        <x:v>93.1</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
@@ -745,7 +745,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C25" s="4" t="n">
-        <x:v>87.8</x:v>
+        <x:v>76.2</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
@@ -753,7 +753,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C26" s="4" t="n">
-        <x:v>70.2</x:v>
+        <x:v>60.9</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
@@ -761,7 +761,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C27" s="4" t="n">
-        <x:v>57.5</x:v>
+        <x:v>49.9</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
@@ -769,7 +769,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C28" s="4" t="n">
-        <x:v>43.4</x:v>
+        <x:v>37.7</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
@@ -777,7 +777,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="C29" s="4" t="n">
-        <x:v>34.7</x:v>
+        <x:v>30.1</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
@@ -785,7 +785,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C30" s="4" t="n">
-        <x:v>24.7</x:v>
+        <x:v>21.4</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
@@ -793,7 +793,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C31" s="4" t="n">
-        <x:v>13.5</x:v>
+        <x:v>11.7</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
@@ -801,7 +801,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C32" s="4" t="n">
-        <x:v>9.4</x:v>
+        <x:v>8.1</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
@@ -809,7 +809,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="C33" s="4" t="n">
-        <x:v>5.5</x:v>
+        <x:v>4.8</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
@@ -817,7 +817,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C34" s="4" t="n">
-        <x:v>2.8</x:v>
+        <x:v>2.4</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
@@ -825,7 +825,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="C35" s="4" t="n">
-        <x:v>2</x:v>
+        <x:v>1.8</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
@@ -833,7 +833,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="C36" s="4" t="n">
-        <x:v>0.9</x:v>
+        <x:v>0.8</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
